--- a/biology/Botanique/Jardins_de_la_Gare-d'Eau/Jardins_de_la_Gare-d'Eau.xlsx
+++ b/biology/Botanique/Jardins_de_la_Gare-d'Eau/Jardins_de_la_Gare-d'Eau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardins_de_la_Gare-d%27Eau</t>
+          <t>Jardins_de_la_Gare-d'Eau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les jardins de la Gare-d'Eau sont un jardin public et des promenades le long du Doubs, du secteur la Gare-d'Eau de la Boucle à Besançon.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardins_de_la_Gare-d%27Eau</t>
+          <t>Jardins_de_la_Gare-d'Eau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XVIIe siècle, une promenade et des jardins sont aménagés sur d'anciens marécages asséchés. Ils longent le Doubs jusqu'au secteur Chamars voisin et à l'hôpital Saint-Jacques de Besançon.
 Après le siège de Besançon par le roi Louis XIV en 1674, Vauban fait construire des fortifications le long des promenades, en même temps que la citadelle de Besançon, achevée en 1683.
